--- a/outputs/BERT results table.xlsx
+++ b/outputs/BERT results table.xlsx
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA1F9C4-D675-CE4F-A167-3A9CFB7BB95F}">
   <dimension ref="A1:AC996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.8125" defaultRowHeight="29" customHeight="1"/>

--- a/outputs/BERT results table.xlsx
+++ b/outputs/BERT results table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ea119_ic_ac_uk/Documents/Imperial academic work/University life/Y4/MSci project/Project_Coding/nlp-physicseducation/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46F4FBE-8193-4148-9117-155B39C9F7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D46F4FBE-8193-4148-9117-155B39C9F7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2CCB57B-B625-4712-9750-B0763572DA39}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="11363" xr2:uid="{26A7B5C3-2A23-2942-801D-710FEB5E2E5F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{26A7B5C3-2A23-2942-801D-710FEB5E2E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,12 +231,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -260,6 +272,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA1F9C4-D675-CE4F-A167-3A9CFB7BB95F}">
   <dimension ref="A1:AC996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.8125" defaultRowHeight="29" customHeight="1"/>
@@ -658,7 +672,7 @@
       <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -862,7 +876,7 @@
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="3" t="s">
